--- a/opset_22/CPU/report_CPUExecutionProvider_aggregated.xlsx
+++ b/opset_22/CPU/report_CPUExecutionProvider_aggregated.xlsx
@@ -6278,7 +6278,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-29 10:48:50</t>
+          <t>2025-11-18 14:42:11</t>
         </is>
       </c>
     </row>

--- a/opset_22/CPU/report_CPUExecutionProvider_aggregated.xlsx
+++ b/opset_22/CPU/report_CPUExecutionProvider_aggregated.xlsx
@@ -6278,7 +6278,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-11-18 14:42:11</t>
+          <t>2025-11-18 14:55:13</t>
         </is>
       </c>
     </row>
